--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Loew/Hermann_Loew.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Loew/Hermann_Loew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Hermann Loew est un entomologiste allemand, né le 19 juillet 1807 à Weissenfels, en royaume de Saxe et mort le 21 avril 1879 à Halle-sur-Saale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille n’est pas très aisée mais de la bonne société. Son père est un fonctionnaire au ministère de la justice du duché de Saxe et devient plus tard un Geheimer Regierungsrath de Prusse. De 1817 à 1829, Loew étudie à l’école du couvent de Rossleben puis à l’université de Halle où il est diplômé de mathématiques, de philologie et d’histoire naturelle.
 Reconnaissant ses capacités en mathématiques, l’université l’emploie, après l’avoir diplômé, comme conférencier sur les mêmes sujets. En 1830, il se rend à Berlin où il donne des leçons dans différentes écoles supérieures comme l’école militaire des Cadets. Il est notamment le précepteur du prince Biron et du jeune Graefe (1828-1870), qui deviendra plus tard l’un des plus grands oculistes. En 1834, Loew est employé comme enseignant supérieur (Oberlehrer) au lycée Frédéric-Guillaume de Posen et où il enseigne les mathématiques et l’histoire naturelle.
@@ -552,7 +566,9 @@
           <t>Espèces d’insectes dédiées à Loew</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trichosoma loewii Zeller, 1846
 Albulina loewii  (Zeller, 1847)
@@ -598,7 +614,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ces publications parues entre 1861 et 1865 donnent une idée de la diversité des sujets étudiés par Loew :
 1861 Diptera aliquot in insula Cuba collecta. Wiener Entomologische Monatschrift. 5: 33-43. (février)
@@ -650,7 +668,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenhuis, N. L. The publication and dating of Hermann Loew’s school-program Diptera articles. Anh 19 (3): 375–378 (octobre 1992).
 </t>
